--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H2">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I2">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J2">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.534622</v>
+        <v>0.8151449999999999</v>
       </c>
       <c r="N2">
-        <v>4.603866</v>
+        <v>2.445435</v>
       </c>
       <c r="O2">
-        <v>0.2309523132298141</v>
+        <v>0.1271069095499719</v>
       </c>
       <c r="P2">
-        <v>0.2390161013490993</v>
+        <v>0.1371035811308388</v>
       </c>
       <c r="Q2">
-        <v>37.93859820951401</v>
+        <v>23.809982496655</v>
       </c>
       <c r="R2">
-        <v>341.447383885626</v>
+        <v>214.289842469895</v>
       </c>
       <c r="S2">
-        <v>0.003096718088123156</v>
+        <v>0.002325417984303384</v>
       </c>
       <c r="T2">
-        <v>0.003216746918828834</v>
+        <v>0.002523841167931075</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H3">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I3">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J3">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.240068000000001</v>
       </c>
       <c r="O3">
-        <v>0.4635267575122261</v>
+        <v>0.4802730342501803</v>
       </c>
       <c r="P3">
-        <v>0.4797109710753027</v>
+        <v>0.5180454245123947</v>
       </c>
       <c r="Q3">
-        <v>76.14366432050535</v>
+        <v>89.96593953546179</v>
       </c>
       <c r="R3">
-        <v>685.2929788845481</v>
+        <v>809.693455819156</v>
       </c>
       <c r="S3">
-        <v>0.006215186478296275</v>
+        <v>0.008786584106053198</v>
       </c>
       <c r="T3">
-        <v>0.006456087181679246</v>
+        <v>0.009536325444300321</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H4">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I4">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J4">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3168843333333333</v>
+        <v>0.5185940000000001</v>
       </c>
       <c r="N4">
-        <v>0.950653</v>
+        <v>1.555782</v>
       </c>
       <c r="O4">
-        <v>0.04768937875882193</v>
+        <v>0.08086522109705406</v>
       </c>
       <c r="P4">
-        <v>0.04935447161056063</v>
+        <v>0.08722508823947427</v>
       </c>
       <c r="Q4">
-        <v>7.833946992303667</v>
+        <v>15.14787438169934</v>
       </c>
       <c r="R4">
-        <v>70.50552293073301</v>
+        <v>136.330869435294</v>
       </c>
       <c r="S4">
-        <v>0.0006394417953581931</v>
+        <v>0.001479427358509013</v>
       </c>
       <c r="T4">
-        <v>0.0006642265671123762</v>
+        <v>0.00160566388390047</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H5">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I5">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J5">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.672531</v>
+        <v>1.402793</v>
       </c>
       <c r="N5">
-        <v>1.345062</v>
+        <v>2.805586</v>
       </c>
       <c r="O5">
-        <v>0.1012122790946305</v>
+        <v>0.2187398352051889</v>
       </c>
       <c r="P5">
-        <v>0.06983076295287964</v>
+        <v>0.1572954863942594</v>
       </c>
       <c r="Q5">
-        <v>16.626168132897</v>
+        <v>40.97489008266034</v>
       </c>
       <c r="R5">
-        <v>99.757008797382</v>
+        <v>245.849340495962</v>
       </c>
       <c r="S5">
-        <v>0.001357102213133628</v>
+        <v>0.004001840249838859</v>
       </c>
       <c r="T5">
-        <v>0.0009398023409312408</v>
+        <v>0.002895539422217754</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H6">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I6">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J6">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.040697</v>
+        <v>0.5965113333333333</v>
       </c>
       <c r="N6">
-        <v>3.122091</v>
+        <v>1.789534</v>
       </c>
       <c r="O6">
-        <v>0.1566192714045073</v>
+        <v>0.09301499989760488</v>
       </c>
       <c r="P6">
-        <v>0.1620876930121578</v>
+        <v>0.1003304197230327</v>
       </c>
       <c r="Q6">
-        <v>25.727889565539</v>
+        <v>17.42380117123089</v>
       </c>
       <c r="R6">
-        <v>231.551006089851</v>
+        <v>156.814210541078</v>
       </c>
       <c r="S6">
-        <v>0.002100025429164645</v>
+        <v>0.001701707281985566</v>
       </c>
       <c r="T6">
-        <v>0.002181422440304134</v>
+        <v>0.001846910500836198</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J7">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.534622</v>
+        <v>0.8151449999999999</v>
       </c>
       <c r="N7">
-        <v>4.603866</v>
+        <v>2.445435</v>
       </c>
       <c r="O7">
-        <v>0.2309523132298141</v>
+        <v>0.1271069095499719</v>
       </c>
       <c r="P7">
-        <v>0.2390161013490993</v>
+        <v>0.1371035811308388</v>
       </c>
       <c r="Q7">
-        <v>2237.910082785751</v>
+        <v>1188.710454061255</v>
       </c>
       <c r="R7">
-        <v>20141.19074507176</v>
+        <v>10698.39408655129</v>
       </c>
       <c r="S7">
-        <v>0.1826682313005945</v>
+        <v>0.1160962074790196</v>
       </c>
       <c r="T7">
-        <v>0.1897484541643338</v>
+        <v>0.1260024605701123</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J8">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.240068000000001</v>
       </c>
       <c r="O8">
-        <v>0.4635267575122261</v>
+        <v>0.4802730342501803</v>
       </c>
       <c r="P8">
-        <v>0.4797109710753027</v>
+        <v>0.5180454245123947</v>
       </c>
       <c r="Q8">
         <v>4491.538490222341</v>
@@ -948,10 +948,10 @@
         <v>40423.84641200108</v>
       </c>
       <c r="S8">
-        <v>0.3666194625684636</v>
+        <v>0.4386691331596422</v>
       </c>
       <c r="T8">
-        <v>0.3808296373902559</v>
+        <v>0.4760998774594935</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J9">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3168843333333333</v>
+        <v>0.5185940000000001</v>
       </c>
       <c r="N9">
-        <v>0.950653</v>
+        <v>1.555782</v>
       </c>
       <c r="O9">
-        <v>0.04768937875882193</v>
+        <v>0.08086522109705406</v>
       </c>
       <c r="P9">
-        <v>0.04935447161056063</v>
+        <v>0.08722508823947427</v>
       </c>
       <c r="Q9">
-        <v>462.1063979556578</v>
+        <v>756.2557694808195</v>
       </c>
       <c r="R9">
-        <v>4158.957581600921</v>
+        <v>6806.301925327375</v>
       </c>
       <c r="S9">
-        <v>0.03771919123853824</v>
+        <v>0.07386022931058241</v>
       </c>
       <c r="T9">
-        <v>0.03918118754904822</v>
+        <v>0.08016257234835132</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J10">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.672531</v>
+        <v>1.402793</v>
       </c>
       <c r="N10">
-        <v>1.345062</v>
+        <v>2.805586</v>
       </c>
       <c r="O10">
-        <v>0.1012122790946305</v>
+        <v>0.2187398352051889</v>
       </c>
       <c r="P10">
-        <v>0.06983076295287964</v>
+        <v>0.1572954863942594</v>
       </c>
       <c r="Q10">
-        <v>980.7391695713889</v>
+        <v>2045.6663587263</v>
       </c>
       <c r="R10">
-        <v>5884.435017428334</v>
+        <v>12273.9981523578</v>
       </c>
       <c r="S10">
-        <v>0.080052317942021</v>
+        <v>0.1997913833466639</v>
       </c>
       <c r="T10">
-        <v>0.05543676450513268</v>
+        <v>0.1445594502986418</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J11">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.040697</v>
+        <v>0.5965113333333333</v>
       </c>
       <c r="N11">
-        <v>3.122091</v>
+        <v>1.789534</v>
       </c>
       <c r="O11">
-        <v>0.1566192714045073</v>
+        <v>0.09301499989760488</v>
       </c>
       <c r="P11">
-        <v>0.1620876930121578</v>
+        <v>0.1003304197230327</v>
       </c>
       <c r="Q11">
-        <v>1517.628646940343</v>
+        <v>869.8811351346708</v>
       </c>
       <c r="R11">
-        <v>13658.65782246309</v>
+        <v>7828.930216212038</v>
       </c>
       <c r="S11">
-        <v>0.1238756386327284</v>
+        <v>0.084957527210807</v>
       </c>
       <c r="T11">
-        <v>0.1286770598906178</v>
+        <v>0.09220678009183453</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H12">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I12">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J12">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.534622</v>
+        <v>0.8151449999999999</v>
       </c>
       <c r="N12">
-        <v>4.603866</v>
+        <v>2.445435</v>
       </c>
       <c r="O12">
-        <v>0.2309523132298141</v>
+        <v>0.1271069095499719</v>
       </c>
       <c r="P12">
-        <v>0.2390161013490993</v>
+        <v>0.1371035811308388</v>
       </c>
       <c r="Q12">
-        <v>92.23045992938</v>
+        <v>47.26702188091999</v>
       </c>
       <c r="R12">
-        <v>830.07413936442</v>
+        <v>425.4031969282799</v>
       </c>
       <c r="S12">
-        <v>0.007528262693364488</v>
+        <v>0.004616365541713214</v>
       </c>
       <c r="T12">
-        <v>0.007820058246790976</v>
+        <v>0.005010270617600165</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H13">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I13">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J13">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.240068000000001</v>
       </c>
       <c r="O13">
-        <v>0.4635267575122261</v>
+        <v>0.4802730342501803</v>
       </c>
       <c r="P13">
-        <v>0.4797109710753027</v>
+        <v>0.5180454245123947</v>
       </c>
       <c r="Q13">
-        <v>185.1087154619067</v>
+        <v>178.5982846966649</v>
       </c>
       <c r="R13">
-        <v>1665.97843915716</v>
+        <v>1607.384562269984</v>
       </c>
       <c r="S13">
-        <v>0.01510940136149728</v>
+        <v>0.01744292181893485</v>
       </c>
       <c r="T13">
-        <v>0.01569504194177446</v>
+        <v>0.01893129083579303</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H14">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I14">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J14">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3168843333333333</v>
+        <v>0.5185940000000001</v>
       </c>
       <c r="N14">
-        <v>0.950653</v>
+        <v>1.555782</v>
       </c>
       <c r="O14">
-        <v>0.04768937875882193</v>
+        <v>0.08086522109705406</v>
       </c>
       <c r="P14">
-        <v>0.04935447161056063</v>
+        <v>0.08722508823947427</v>
       </c>
       <c r="Q14">
-        <v>19.04468188762333</v>
+        <v>30.07120689609067</v>
       </c>
       <c r="R14">
-        <v>171.40213698861</v>
+        <v>270.640862064816</v>
       </c>
       <c r="S14">
-        <v>0.001554512123992104</v>
+        <v>0.002936924684245408</v>
       </c>
       <c r="T14">
-        <v>0.00161476503279778</v>
+        <v>0.003187526489966498</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H15">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I15">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J15">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.672531</v>
+        <v>1.402793</v>
       </c>
       <c r="N15">
-        <v>1.345062</v>
+        <v>2.805586</v>
       </c>
       <c r="O15">
-        <v>0.1012122790946305</v>
+        <v>0.2187398352051889</v>
       </c>
       <c r="P15">
-        <v>0.06983076295287964</v>
+        <v>0.1572954863942594</v>
       </c>
       <c r="Q15">
-        <v>40.41897186849</v>
+        <v>81.34239604659466</v>
       </c>
       <c r="R15">
-        <v>242.51383121094</v>
+        <v>488.0543762795679</v>
       </c>
       <c r="S15">
-        <v>0.003299177281070591</v>
+        <v>0.007944359920451583</v>
       </c>
       <c r="T15">
-        <v>0.002284702288369202</v>
+        <v>0.005748157322092134</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H16">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I16">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J16">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.040697</v>
+        <v>0.5965113333333333</v>
       </c>
       <c r="N16">
-        <v>3.122091</v>
+        <v>1.789534</v>
       </c>
       <c r="O16">
-        <v>0.1566192714045073</v>
+        <v>0.09301499989760488</v>
       </c>
       <c r="P16">
-        <v>0.1620876930121578</v>
+        <v>0.1003304197230327</v>
       </c>
       <c r="Q16">
-        <v>62.54567115363</v>
+        <v>34.58932367233244</v>
       </c>
       <c r="R16">
-        <v>562.9110403826701</v>
+        <v>311.3039130509919</v>
       </c>
       <c r="S16">
-        <v>0.005105257451148455</v>
+        <v>0.003378189603618258</v>
       </c>
       <c r="T16">
-        <v>0.00530313729195895</v>
+        <v>0.003666443646793513</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H17">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I17">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J17">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.534622</v>
+        <v>0.8151449999999999</v>
       </c>
       <c r="N17">
-        <v>4.603866</v>
+        <v>2.445435</v>
       </c>
       <c r="O17">
-        <v>0.2309523132298141</v>
+        <v>0.1271069095499719</v>
       </c>
       <c r="P17">
-        <v>0.2390161013490993</v>
+        <v>0.1371035811308388</v>
       </c>
       <c r="Q17">
-        <v>31.416846038124</v>
+        <v>24.031359032325</v>
       </c>
       <c r="R17">
-        <v>188.501076228744</v>
+        <v>144.18815419395</v>
       </c>
       <c r="S17">
-        <v>0.002564383503596118</v>
+        <v>0.002347038872828695</v>
       </c>
       <c r="T17">
-        <v>0.001775852692893505</v>
+        <v>0.001698204615245863</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H18">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I18">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J18">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.240068000000001</v>
       </c>
       <c r="O18">
-        <v>0.4635267575122261</v>
+        <v>0.4802730342501803</v>
       </c>
       <c r="P18">
-        <v>0.4797109710753027</v>
+        <v>0.5180454245123947</v>
       </c>
       <c r="Q18">
-        <v>63.05435339295201</v>
+        <v>90.80241003792668</v>
       </c>
       <c r="R18">
-        <v>378.3261203577121</v>
+        <v>544.8144602275601</v>
       </c>
       <c r="S18">
-        <v>0.005146778370896628</v>
+        <v>0.008868278561311381</v>
       </c>
       <c r="T18">
-        <v>0.003564178375373894</v>
+        <v>0.006416660480767476</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H19">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I19">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J19">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3168843333333333</v>
+        <v>0.5185940000000001</v>
       </c>
       <c r="N19">
-        <v>0.950653</v>
+        <v>1.555782</v>
       </c>
       <c r="O19">
-        <v>0.04768937875882193</v>
+        <v>0.08086522109705406</v>
       </c>
       <c r="P19">
-        <v>0.04935447161056063</v>
+        <v>0.08722508823947427</v>
       </c>
       <c r="Q19">
-        <v>6.487269381142</v>
+        <v>15.28871379449</v>
       </c>
       <c r="R19">
-        <v>38.923616286852</v>
+        <v>91.73228276694002</v>
       </c>
       <c r="S19">
-        <v>0.0005295199449428285</v>
+        <v>0.001493182534660367</v>
       </c>
       <c r="T19">
-        <v>0.0003666960962932652</v>
+        <v>0.001080395174157743</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H20">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I20">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J20">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.672531</v>
+        <v>1.402793</v>
       </c>
       <c r="N20">
-        <v>1.345062</v>
+        <v>2.805586</v>
       </c>
       <c r="O20">
-        <v>0.1012122790946305</v>
+        <v>0.2187398352051889</v>
       </c>
       <c r="P20">
-        <v>0.06983076295287964</v>
+        <v>0.1572954863942594</v>
       </c>
       <c r="Q20">
-        <v>13.768082878302</v>
+        <v>41.355859670405</v>
       </c>
       <c r="R20">
-        <v>55.07233151320801</v>
+        <v>165.42343868162</v>
       </c>
       <c r="S20">
-        <v>0.001123812510218804</v>
+        <v>0.004039047901332873</v>
       </c>
       <c r="T20">
-        <v>0.0005188317763394338</v>
+        <v>0.0019483073946636</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H21">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I21">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J21">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.040697</v>
+        <v>0.5965113333333333</v>
       </c>
       <c r="N21">
-        <v>3.122091</v>
+        <v>1.789534</v>
       </c>
       <c r="O21">
-        <v>0.1566192714045073</v>
+        <v>0.09301499989760488</v>
       </c>
       <c r="P21">
-        <v>0.1620876930121578</v>
+        <v>0.1003304197230327</v>
       </c>
       <c r="Q21">
-        <v>21.305192693274</v>
+        <v>17.58580132146333</v>
       </c>
       <c r="R21">
-        <v>127.831156159644</v>
+        <v>105.51480792878</v>
       </c>
       <c r="S21">
-        <v>0.001739025127387702</v>
+        <v>0.00171752913581781</v>
       </c>
       <c r="T21">
-        <v>0.001204286508297282</v>
+        <v>0.001242721600835594</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H22">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I22">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J22">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.534622</v>
+        <v>0.8151449999999999</v>
       </c>
       <c r="N22">
-        <v>4.603866</v>
+        <v>2.445435</v>
       </c>
       <c r="O22">
-        <v>0.2309523132298141</v>
+        <v>0.1271069095499719</v>
       </c>
       <c r="P22">
-        <v>0.2390161013490993</v>
+        <v>0.1371035811308388</v>
       </c>
       <c r="Q22">
-        <v>429.9533745366421</v>
+        <v>17.630346514455</v>
       </c>
       <c r="R22">
-        <v>3869.580370829778</v>
+        <v>158.673118630095</v>
       </c>
       <c r="S22">
-        <v>0.03509471764413579</v>
+        <v>0.001721879672107017</v>
       </c>
       <c r="T22">
-        <v>0.03645498932625217</v>
+        <v>0.001868804159949417</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H23">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I23">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J23">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.240068000000001</v>
       </c>
       <c r="O23">
-        <v>0.4635267575122261</v>
+        <v>0.4802730342501803</v>
       </c>
       <c r="P23">
-        <v>0.4797109710753027</v>
+        <v>0.5180454245123947</v>
       </c>
       <c r="Q23">
-        <v>862.9265963753162</v>
+        <v>66.616205565524</v>
       </c>
       <c r="R23">
-        <v>7766.339367377846</v>
+        <v>599.5458500897161</v>
       </c>
       <c r="S23">
-        <v>0.07043592873307228</v>
+        <v>0.006506116604238732</v>
       </c>
       <c r="T23">
-        <v>0.0731660261862192</v>
+        <v>0.007061270292040266</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H24">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I24">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J24">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.3168843333333333</v>
+        <v>0.5185940000000001</v>
       </c>
       <c r="N24">
-        <v>0.950653</v>
+        <v>1.555782</v>
       </c>
       <c r="O24">
-        <v>0.04768937875882193</v>
+        <v>0.08086522109705406</v>
       </c>
       <c r="P24">
-        <v>0.04935447161056063</v>
+        <v>0.08722508823947427</v>
       </c>
       <c r="Q24">
-        <v>88.78113858296101</v>
+        <v>11.216399438526</v>
       </c>
       <c r="R24">
-        <v>799.0302472466491</v>
+        <v>100.947594946734</v>
       </c>
       <c r="S24">
-        <v>0.007246713655990558</v>
+        <v>0.001095457209056875</v>
       </c>
       <c r="T24">
-        <v>0.007527596365308983</v>
+        <v>0.001188930343098232</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H25">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I25">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J25">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.672531</v>
+        <v>1.402793</v>
       </c>
       <c r="N25">
-        <v>1.345062</v>
+        <v>2.805586</v>
       </c>
       <c r="O25">
-        <v>0.1012122790946305</v>
+        <v>0.2187398352051889</v>
       </c>
       <c r="P25">
-        <v>0.06983076295287964</v>
+        <v>0.1572954863942594</v>
       </c>
       <c r="Q25">
-        <v>188.422277883741</v>
+        <v>30.340278941847</v>
       </c>
       <c r="R25">
-        <v>1130.533667302446</v>
+        <v>182.041673651082</v>
       </c>
       <c r="S25">
-        <v>0.01537986914818652</v>
+        <v>0.002963203786901741</v>
       </c>
       <c r="T25">
-        <v>0.01065066204210709</v>
+        <v>0.002144031956644051</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H26">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I26">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J26">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.040697</v>
+        <v>0.5965113333333333</v>
       </c>
       <c r="N26">
-        <v>3.122091</v>
+        <v>1.789534</v>
       </c>
       <c r="O26">
-        <v>0.1566192714045073</v>
+        <v>0.09301499989760488</v>
       </c>
       <c r="P26">
-        <v>0.1620876930121578</v>
+        <v>0.1003304197230327</v>
       </c>
       <c r="Q26">
-        <v>291.570945170967</v>
+        <v>12.901632846262</v>
       </c>
       <c r="R26">
-        <v>2624.138506538703</v>
+        <v>116.114695616358</v>
       </c>
       <c r="S26">
-        <v>0.02379932476407819</v>
+        <v>0.001260046665376246</v>
       </c>
       <c r="T26">
-        <v>0.02472178688097959</v>
+        <v>0.001367563882732896</v>
       </c>
     </row>
   </sheetData>
